--- a/lsh_data_processing/lsh_coding_new.xlsx
+++ b/lsh_data_processing/lsh_coding_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Projects/covid/BCS/lsh_data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACAA808-6670-0D4B-88EE-8BCB69E5742C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E43F59-9659-D041-B53F-04248A232C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12520" windowHeight="17540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lsh_covid_groups" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="342">
   <si>
     <t>text_out_category_raw</t>
   </si>
@@ -287,9 +287,6 @@
     <t>EG_Skoða gagnagöt</t>
   </si>
   <si>
-    <t>Eldra_Spurningar úr forms</t>
-  </si>
-  <si>
     <t>sheet_name_raw</t>
   </si>
   <si>
@@ -788,9 +785,6 @@
     <t>deceased</t>
   </si>
   <si>
-    <t>Report 16</t>
-  </si>
-  <si>
     <t>GD Birkiborg-form</t>
   </si>
   <si>
@@ -1062,13 +1056,19 @@
   </si>
   <si>
     <t>Hb-10E GD Verkjamiðstöð</t>
+  </si>
+  <si>
+    <t>Hb-11F GD Erfða- og sameindalæknisfræðideild</t>
+  </si>
+  <si>
+    <t>tímasetning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1120,6 +1120,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1186,7 +1192,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1198,6 +1204,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1586,10 +1593,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1597,26 +1604,26 @@
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" t="s">
         <v>248</v>
-      </c>
-      <c r="C7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
@@ -1627,7 +1634,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>46</v>
@@ -1638,7 +1645,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>47</v>
@@ -1676,25 +1683,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
         <v>171</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>173</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>174</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>175</v>
-      </c>
-      <c r="G1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1702,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1725,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1748,13 +1755,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1771,13 +1778,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1794,13 +1801,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1817,13 +1824,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1840,13 +1847,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1863,13 +1870,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1886,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1909,13 +1916,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1932,13 +1939,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1955,13 +1962,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1978,13 +1985,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2001,13 +2008,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -2024,13 +2031,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2047,13 +2054,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2070,13 +2077,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -2093,13 +2100,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -2116,13 +2123,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -2139,13 +2146,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2162,13 +2169,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -2185,13 +2192,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -2208,13 +2215,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -2231,13 +2238,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -2254,13 +2261,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2277,13 +2284,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2300,13 +2307,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2323,13 +2330,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2346,13 +2353,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2369,13 +2376,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2392,13 +2399,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -2415,13 +2422,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -2438,13 +2445,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -2461,13 +2468,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -2484,13 +2491,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -2507,13 +2514,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -2530,13 +2537,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -2553,13 +2560,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -2576,13 +2583,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -2599,13 +2606,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -2622,13 +2629,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -2645,13 +2652,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43">
         <v>5</v>
@@ -2668,13 +2675,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -2691,13 +2698,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -2714,13 +2721,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -2737,13 +2744,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -2760,13 +2767,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -2783,13 +2790,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -2806,13 +2813,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -2829,13 +2836,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -2852,13 +2859,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E52">
         <v>6</v>
@@ -2875,13 +2882,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E53">
         <v>6</v>
@@ -2898,13 +2905,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54">
         <v>6</v>
@@ -2921,13 +2928,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -2944,13 +2951,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -2967,13 +2974,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -2990,13 +2997,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E58">
         <v>6</v>
@@ -3013,13 +3020,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -3036,13 +3043,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E60">
         <v>6</v>
@@ -3059,13 +3066,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -3082,13 +3089,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -3105,13 +3112,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63">
         <v>7</v>
@@ -3128,13 +3135,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E64">
         <v>7</v>
@@ -3151,13 +3158,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E65">
         <v>7</v>
@@ -3174,13 +3181,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E66">
         <v>7</v>
@@ -3197,13 +3204,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E67">
         <v>7</v>
@@ -3220,13 +3227,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E68">
         <v>7</v>
@@ -3243,13 +3250,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -3266,13 +3273,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E70">
         <v>7</v>
@@ -3289,13 +3296,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E71">
         <v>7</v>
@@ -3312,13 +3319,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E72">
         <v>8</v>
@@ -3335,13 +3342,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E73">
         <v>8</v>
@@ -3358,13 +3365,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E74">
         <v>8</v>
@@ -3381,13 +3388,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E75">
         <v>8</v>
@@ -3404,13 +3411,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E76">
         <v>8</v>
@@ -3427,13 +3434,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E77">
         <v>8</v>
@@ -3450,13 +3457,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -3473,13 +3480,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E79">
         <v>8</v>
@@ -3496,13 +3503,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E80">
         <v>8</v>
@@ -3519,13 +3526,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E81">
         <v>8</v>
@@ -3542,13 +3549,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E82">
         <v>9</v>
@@ -3565,13 +3572,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E83">
         <v>9</v>
@@ -3588,13 +3595,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E84">
         <v>9</v>
@@ -3611,13 +3618,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E85">
         <v>9</v>
@@ -3634,13 +3641,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E86">
         <v>9</v>
@@ -3657,13 +3664,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E87">
         <v>9</v>
@@ -3680,13 +3687,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E88">
         <v>9</v>
@@ -3703,13 +3710,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E89">
         <v>9</v>
@@ -3726,13 +3733,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E90">
         <v>9</v>
@@ -3749,13 +3756,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E91">
         <v>9</v>
@@ -3772,13 +3779,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E92">
         <v>9</v>
@@ -3795,13 +3802,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E93">
         <v>9</v>
@@ -3818,13 +3825,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E94">
         <v>9</v>
@@ -3841,13 +3848,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E95">
         <v>9</v>
@@ -3864,13 +3871,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E96">
         <v>9</v>
@@ -3887,13 +3894,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E97">
         <v>9</v>
@@ -3910,13 +3917,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E98">
         <v>9</v>
@@ -3933,13 +3940,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E99">
         <v>9</v>
@@ -3956,13 +3963,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E100">
         <v>9</v>
@@ -3979,13 +3986,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E101">
         <v>9</v>
@@ -4002,13 +4009,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E102">
         <v>9</v>
@@ -4025,13 +4032,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E103">
         <v>9</v>
@@ -4048,13 +4055,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E104">
         <v>9</v>
@@ -4071,13 +4078,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E105">
         <v>9</v>
@@ -4094,13 +4101,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -4117,13 +4124,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E107">
         <v>9</v>
@@ -4140,13 +4147,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E108">
         <v>9</v>
@@ -4163,13 +4170,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C109" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E109">
         <v>9</v>
@@ -4186,13 +4193,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E110">
         <v>9</v>
@@ -4209,13 +4216,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E111">
         <v>9</v>
@@ -4232,13 +4239,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E112">
         <v>9</v>
@@ -4255,13 +4262,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E113">
         <v>9</v>
@@ -4278,13 +4285,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E114">
         <v>9</v>
@@ -4301,13 +4308,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E115">
         <v>9</v>
@@ -4324,13 +4331,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E116">
         <v>9</v>
@@ -4347,13 +4354,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E117">
         <v>9</v>
@@ -4370,13 +4377,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E118">
         <v>9</v>
@@ -4393,13 +4400,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E119">
         <v>9</v>
@@ -4416,13 +4423,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E120">
         <v>9</v>
@@ -4439,13 +4446,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E121">
         <v>9</v>
@@ -4462,13 +4469,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E122">
         <v>9</v>
@@ -4501,10 +4508,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
         <v>215</v>
-      </c>
-      <c r="B1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4520,7 +4527,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4528,7 +4535,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4554,31 +4561,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4586,16 +4593,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4604,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4615,16 +4622,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -4633,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4644,16 +4651,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4662,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -4673,16 +4680,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4691,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4702,16 +4709,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4720,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4731,16 +4738,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4749,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4760,16 +4767,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4778,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -4789,16 +4796,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4807,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -4818,16 +4825,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4836,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -4847,16 +4854,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4865,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -4876,16 +4883,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4894,7 +4901,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -4905,16 +4912,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4923,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -4934,16 +4941,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -4952,7 +4959,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -4963,16 +4970,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -4981,7 +4988,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -4992,16 +4999,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -5010,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -5021,16 +5028,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -5039,7 +5046,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -5050,16 +5057,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -5068,7 +5075,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -5079,16 +5086,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -5097,7 +5104,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -5108,16 +5115,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -5126,7 +5133,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -5137,16 +5144,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -5155,7 +5162,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -5166,16 +5173,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -5184,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I22">
         <v>3</v>
@@ -5195,16 +5202,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -5213,7 +5220,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -5224,16 +5231,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -5242,7 +5249,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -5253,16 +5260,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -5271,7 +5278,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -5282,16 +5289,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -5300,7 +5307,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -5311,16 +5318,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -5329,7 +5336,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I27">
         <v>3</v>
@@ -5340,16 +5347,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -5358,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I28">
         <v>3</v>
@@ -5369,16 +5376,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -5387,7 +5394,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -5398,16 +5405,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5416,7 +5423,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -5427,16 +5434,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -5445,7 +5452,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -5456,16 +5463,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -5474,7 +5481,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -5485,16 +5492,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -5503,7 +5510,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -5514,16 +5521,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -5532,7 +5539,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -5543,16 +5550,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -5561,7 +5568,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -5572,16 +5579,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -5590,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -5601,16 +5608,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -5619,7 +5626,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -5630,16 +5637,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -5648,7 +5655,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -5659,16 +5666,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -5677,7 +5684,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -5688,16 +5695,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -5706,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -5717,16 +5724,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -5735,7 +5742,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I41">
         <v>3</v>
@@ -5746,16 +5753,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -5764,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -5775,16 +5782,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -5793,7 +5800,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -5804,16 +5811,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -5822,7 +5829,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -5833,16 +5840,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -5851,7 +5858,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I45">
         <v>3</v>
@@ -5862,16 +5869,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -5880,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -5891,16 +5898,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -5909,7 +5916,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I47">
         <v>3</v>
@@ -5920,16 +5927,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -5938,7 +5945,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -5949,16 +5956,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -5967,7 +5974,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -5978,16 +5985,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -5996,7 +6003,7 @@
         <v>2</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -6007,16 +6014,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -6025,7 +6032,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -6036,16 +6043,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -6054,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -6065,16 +6072,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -6083,7 +6090,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I53">
         <v>3</v>
@@ -6094,16 +6101,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -6112,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -6123,16 +6130,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -6141,7 +6148,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I55">
         <v>3</v>
@@ -6152,16 +6159,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -6170,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I56">
         <v>3</v>
@@ -6181,16 +6188,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -6199,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -6210,16 +6217,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -6228,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I58">
         <v>3</v>
@@ -6239,16 +6246,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -6257,7 +6264,7 @@
         <v>2</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I59">
         <v>3</v>
@@ -6268,16 +6275,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -6286,7 +6293,7 @@
         <v>2</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I60">
         <v>3</v>
@@ -6372,13 +6379,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>221</v>
-      </c>
-      <c r="C1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6389,40 +6396,40 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6432,10 +6439,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6738,7 +6745,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -6755,7 +6762,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -6772,7 +6779,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -6789,7 +6796,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -6806,13 +6813,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -6823,7 +6830,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -6840,7 +6847,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -6857,10 +6864,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
         <v>141</v>
-      </c>
-      <c r="B25" t="s">
-        <v>142</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -6874,7 +6881,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -6891,7 +6898,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -6908,13 +6915,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -6925,7 +6932,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -6942,7 +6949,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -6959,7 +6966,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -6976,7 +6983,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -6993,7 +7000,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -7010,7 +7017,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
@@ -7027,7 +7034,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -7044,7 +7051,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
@@ -7061,7 +7068,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
@@ -7078,10 +7085,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
@@ -7095,10 +7102,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
@@ -7112,7 +7119,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
@@ -7129,10 +7136,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
         <v>193</v>
-      </c>
-      <c r="B41" t="s">
-        <v>194</v>
       </c>
       <c r="C41" t="s">
         <v>35</v>
@@ -7146,7 +7153,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
         <v>31</v>
@@ -7163,7 +7170,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
@@ -7180,7 +7187,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
         <v>68</v>
@@ -7197,7 +7204,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s">
         <v>31</v>
@@ -7214,7 +7221,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B46" t="s">
         <v>31</v>
@@ -7231,7 +7238,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
@@ -7248,10 +7255,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
@@ -7265,10 +7272,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
@@ -7282,7 +7289,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B50" t="s">
         <v>31</v>
@@ -7299,7 +7306,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B51" t="s">
         <v>31</v>
@@ -7316,7 +7323,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
@@ -7333,7 +7340,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
@@ -7350,10 +7357,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
@@ -7367,7 +7374,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B55" t="s">
         <v>31</v>
@@ -7384,7 +7391,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s">
         <v>31</v>
@@ -7401,7 +7408,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s">
         <v>31</v>
@@ -7418,7 +7425,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
@@ -7435,13 +7442,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D59" t="s">
         <v>34</v>
@@ -7452,7 +7459,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s">
         <v>31</v>
@@ -7469,7 +7476,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s">
         <v>30</v>
@@ -7486,7 +7493,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
@@ -7503,7 +7510,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s">
         <v>31</v>
@@ -7520,7 +7527,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s">
         <v>31</v>
@@ -7537,7 +7544,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
         <v>29</v>
@@ -7554,7 +7561,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -7571,7 +7578,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B67" t="s">
         <v>29</v>
@@ -7588,7 +7595,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s">
         <v>31</v>
@@ -7605,7 +7612,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
@@ -7622,7 +7629,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s">
         <v>30</v>
@@ -7639,7 +7646,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s">
         <v>30</v>
@@ -7656,13 +7663,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s">
         <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D72" t="s">
         <v>34</v>
@@ -7673,7 +7680,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B73" t="s">
         <v>29</v>
@@ -7690,7 +7697,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B74" t="s">
         <v>30</v>
@@ -7707,7 +7714,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
@@ -7724,7 +7731,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
@@ -7741,10 +7748,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
         <v>35</v>
@@ -7758,7 +7765,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
@@ -7775,10 +7782,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -7792,7 +7799,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
@@ -7809,13 +7816,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D81" t="s">
         <v>34</v>
@@ -7826,7 +7833,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
@@ -7843,7 +7850,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B83" t="s">
         <v>30</v>
@@ -7860,10 +7867,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
@@ -7877,7 +7884,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
@@ -7894,10 +7901,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C86" t="s">
         <v>35</v>
@@ -7911,7 +7918,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
@@ -7928,7 +7935,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B88" t="s">
         <v>29</v>
@@ -7945,7 +7952,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B89" t="s">
         <v>31</v>
@@ -7962,7 +7969,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
         <v>29</v>
@@ -7979,7 +7986,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
@@ -7996,10 +8003,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C92" t="s">
         <v>35</v>
@@ -8013,7 +8020,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B93" t="s">
         <v>31</v>
@@ -8030,7 +8037,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B94" t="s">
         <v>31</v>
@@ -8047,7 +8054,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B95" t="s">
         <v>31</v>
@@ -8064,7 +8071,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B96" t="s">
         <v>31</v>
@@ -8081,7 +8088,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B97" t="s">
         <v>31</v>
@@ -8098,7 +8105,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B98" t="s">
         <v>31</v>
@@ -8115,10 +8122,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" t="s">
         <v>35</v>
@@ -8132,7 +8139,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
@@ -8149,7 +8156,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B101" t="s">
         <v>31</v>
@@ -8166,7 +8173,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
@@ -8183,7 +8190,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B103" t="s">
         <v>31</v>
@@ -8200,7 +8207,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B104" t="s">
         <v>31</v>
@@ -8217,10 +8224,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C105" t="s">
         <v>35</v>
@@ -8234,7 +8241,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B106" t="s">
         <v>31</v>
@@ -8251,7 +8258,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B107" t="s">
         <v>31</v>
@@ -8268,10 +8275,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B108" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C108" t="s">
         <v>35</v>
@@ -8285,7 +8292,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s">
         <v>31</v>
@@ -8302,7 +8309,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B110" t="s">
         <v>31</v>
@@ -8319,7 +8326,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B111" t="s">
         <v>29</v>
@@ -8336,7 +8343,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B112" t="s">
         <v>31</v>
@@ -8353,7 +8360,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B113" t="s">
         <v>31</v>
@@ -8370,7 +8377,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B114" t="s">
         <v>31</v>
@@ -8387,7 +8394,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B115" t="s">
         <v>31</v>
@@ -8404,10 +8411,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B116" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
         <v>35</v>
@@ -8421,10 +8428,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
         <v>35</v>
@@ -8438,10 +8445,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C118" t="s">
         <v>35</v>
@@ -8455,10 +8462,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B119" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
         <v>35</v>
@@ -8472,7 +8479,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B120" t="s">
         <v>31</v>
@@ -8489,10 +8496,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s">
         <v>35</v>
@@ -8506,7 +8513,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B122" t="s">
         <v>31</v>
@@ -8523,7 +8530,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B123" t="s">
         <v>31</v>
@@ -8540,10 +8547,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
         <v>35</v>
@@ -8557,7 +8564,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B125" t="s">
         <v>31</v>
@@ -8574,10 +8581,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s">
         <v>35</v>
@@ -8591,7 +8598,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B127" t="s">
         <v>31</v>
@@ -8608,7 +8615,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B128" t="s">
         <v>31</v>
@@ -8625,10 +8632,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C129" t="s">
         <v>35</v>
@@ -8642,7 +8649,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B130" t="s">
         <v>31</v>
@@ -8659,10 +8666,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C131" t="s">
         <v>35</v>
@@ -8676,10 +8683,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C132" t="s">
         <v>35</v>
@@ -8693,10 +8700,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C133" t="s">
         <v>35</v>
@@ -8710,7 +8717,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B134" t="s">
         <v>30</v>
@@ -8727,10 +8734,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C135" t="s">
         <v>35</v>
@@ -8744,7 +8751,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B136" t="s">
         <v>31</v>
@@ -8761,7 +8768,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B137" t="s">
         <v>31</v>
@@ -8778,7 +8785,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B138" t="s">
         <v>31</v>
@@ -8790,6 +8797,23 @@
         <v>10</v>
       </c>
       <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B139" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" t="s">
+        <v>35</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139">
         <v>1</v>
       </c>
     </row>
@@ -8946,7 +8970,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -8960,21 +8984,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
         <v>177</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>178</v>
       </c>
-      <c r="C11" t="s">
-        <v>179</v>
-      </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -8988,7 +9012,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -9031,39 +9055,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -9077,16 +9101,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
         <v>98</v>
       </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -9100,16 +9124,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -9123,16 +9147,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
         <v>103</v>
       </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -9146,16 +9170,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -9169,16 +9193,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9192,16 +9216,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -9226,10 +9250,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9239,7 +9263,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -9279,7 +9303,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -9289,7 +9313,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -9299,17 +9323,17 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -9319,17 +9343,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -9361,30 +9380,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9395,13 +9414,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
         <v>112</v>
       </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -9412,13 +9431,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" t="s">
-        <v>115</v>
-      </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9449,21 +9468,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>117</v>
-      </c>
-      <c r="C1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9471,10 +9490,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
         <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -9482,10 +9501,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
         <v>123</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -9493,10 +9512,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
         <v>125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>126</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9504,10 +9523,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9515,10 +9534,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
         <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9526,10 +9545,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
         <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -9537,10 +9556,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
         <v>133</v>
-      </c>
-      <c r="B9" t="s">
-        <v>134</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9548,10 +9567,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
         <v>135</v>
-      </c>
-      <c r="B10" t="s">
-        <v>136</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -9559,10 +9578,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
         <v>137</v>
-      </c>
-      <c r="B11" t="s">
-        <v>138</v>
       </c>
       <c r="C11">
         <v>1</v>

--- a/lsh_data_processing/lsh_coding_new.xlsx
+++ b/lsh_data_processing/lsh_coding_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Projects/covid/BCS/lsh_data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E43F59-9659-D041-B53F-04248A232C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E48271-41DE-BA48-8069-58E73529E5C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12520" windowHeight="17540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="17540" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lsh_covid_groups" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="343">
   <si>
     <t>text_out_category_raw</t>
   </si>
@@ -1062,6 +1062,9 @@
   </si>
   <si>
     <t>tímasetning</t>
+  </si>
+  <si>
+    <t>Óþekkt</t>
   </si>
 </sst>
 </file>
@@ -6441,7 +6444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
@@ -8829,10 +8832,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9022,6 +9025,20 @@
       </c>
       <c r="D13" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/lsh_data_processing/lsh_coding_new.xlsx
+++ b/lsh_data_processing/lsh_coding_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Projects/covid/BCS/lsh_data_processing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Projects/covid/BCS1/lsh_data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E48271-41DE-BA48-8069-58E73529E5C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6126895-D020-314D-B110-7621F4027F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="17540" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="17540" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lsh_covid_groups" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="345">
   <si>
     <t>text_out_category_raw</t>
   </si>
@@ -1065,6 +1065,12 @@
   </si>
   <si>
     <t>Óþekkt</t>
+  </si>
+  <si>
+    <t>Fv-B3 GD Skjaldkirtilshnúta</t>
+  </si>
+  <si>
+    <t>Félagsráðgjöf</t>
   </si>
 </sst>
 </file>
@@ -6442,10 +6448,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8753,7 +8759,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="A136" s="7" t="s">
         <v>337</v>
       </c>
       <c r="B136" t="s">
@@ -8770,7 +8776,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="A137" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B137" t="s">
@@ -8787,7 +8793,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="A138" s="7" t="s">
         <v>339</v>
       </c>
       <c r="B138" t="s">
@@ -8817,6 +8823,40 @@
         <v>10</v>
       </c>
       <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B140" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" t="s">
+        <v>35</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B141" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" t="s">
+        <v>35</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141">
         <v>1</v>
       </c>
     </row>
@@ -8834,7 +8874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="141" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/lsh_data_processing/lsh_coding_new.xlsx
+++ b/lsh_data_processing/lsh_coding_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Projects/covid/BCS1/lsh_data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6126895-D020-314D-B110-7621F4027F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BCA75F-D0DF-0B4D-8ED4-7D57C48D02E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="17540" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="346">
   <si>
     <t>text_out_category_raw</t>
   </si>
@@ -1071,6 +1071,9 @@
   </si>
   <si>
     <t>Félagsráðgjöf</t>
+  </si>
+  <si>
+    <t>Kl-1h GD Kleppi</t>
   </si>
 </sst>
 </file>
@@ -6448,10 +6451,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8857,6 +8860,23 @@
         <v>10</v>
       </c>
       <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B142" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142">
         <v>1</v>
       </c>
     </row>

--- a/lsh_data_processing/lsh_coding_new.xlsx
+++ b/lsh_data_processing/lsh_coding_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Projects/covid/BCS1/lsh_data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BCA75F-D0DF-0B4D-8ED4-7D57C48D02E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5791226E-1AE9-4245-953C-C34722937EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="17540" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="349">
   <si>
     <t>text_out_category_raw</t>
   </si>
@@ -1074,6 +1074,15 @@
   </si>
   <si>
     <t>Kl-1h GD Kleppi</t>
+  </si>
+  <si>
+    <t>La71 DD Laugarásinn meðferðargeðdeild</t>
+  </si>
+  <si>
+    <t>Öldrunarlækningadeild C (Lk-L4)</t>
+  </si>
+  <si>
+    <t>Öldrunarlækningadeild B (Lk-K2)</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1213,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1217,6 +1226,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6451,10 +6461,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7610,16 +7620,16 @@
         <v>258</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -8879,6 +8889,63 @@
       <c r="E142">
         <v>1</v>
       </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B143" t="s">
+        <v>141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B144" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" t="s">
+        <v>61</v>
+      </c>
+      <c r="D144" t="s">
+        <v>34</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" t="s">
+        <v>61</v>
+      </c>
+      <c r="D145" t="s">
+        <v>34</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="7"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lsh_data_processing/lsh_coding_new.xlsx
+++ b/lsh_data_processing/lsh_coding_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Projects/covid/BCS1/lsh_data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5791226E-1AE9-4245-953C-C34722937EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2596635A-E905-D949-9657-FC5CC9AB00C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="17540" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="351">
   <si>
     <t>text_out_category_raw</t>
   </si>
@@ -1083,6 +1083,12 @@
   </si>
   <si>
     <t>Öldrunarlækningadeild B (Lk-K2)</t>
+  </si>
+  <si>
+    <t>Hb-10E GD Kviðarhols- og brjóstaskurðlækninga, deildarlæknar</t>
+  </si>
+  <si>
+    <t>Hb-23E DD Barna BH</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1219,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1226,7 +1232,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6463,8 +6468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8942,10 +8947,38 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="7"/>
+      <c r="A146" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B146" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="8"/>
+      <c r="A147" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B147" t="s">
+        <v>141</v>
+      </c>
+      <c r="C147" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lsh_data_processing/lsh_coding_new.xlsx
+++ b/lsh_data_processing/lsh_coding_new.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Projects/covid/BCS1/lsh_data_processing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Projects/covid/BCS/lsh_data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2596635A-E905-D949-9657-FC5CC9AB00C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371F458-FA84-3247-936C-7E00D41F386C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="17540" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="17540" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lsh_covid_groups" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="352">
   <si>
     <t>text_out_category_raw</t>
   </si>
@@ -1089,6 +1089,9 @@
   </si>
   <si>
     <t>Hb-23E DD Barna BH</t>
+  </si>
+  <si>
+    <t>COVID-19 einangrun aflétt</t>
   </si>
 </sst>
 </file>
@@ -6392,10 +6395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F531C9-8D09-6E45-B72D-D7F85CF9D0F7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6459,6 +6462,17 @@
         <v>226</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6468,7 +6482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView topLeftCell="A124" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>

--- a/lsh_data_processing/lsh_coding_new.xlsx
+++ b/lsh_data_processing/lsh_coding_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Projects/covid/BCS/lsh_data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371F458-FA84-3247-936C-7E00D41F386C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE078331-05F8-9F49-A4C7-7351B7138271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="17540" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23880" windowHeight="17500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lsh_covid_groups" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="386">
   <si>
     <t>text_out_category_raw</t>
   </si>
@@ -1092,6 +1092,108 @@
   </si>
   <si>
     <t>COVID-19 einangrun aflétt</t>
+  </si>
+  <si>
+    <t>Hb-11F GD Sálfræðiþjónusta</t>
+  </si>
+  <si>
+    <t>Kv-H8 GD Líknardeildar</t>
+  </si>
+  <si>
+    <t>Hb-14D GD Sjúkraþjálfun H</t>
+  </si>
+  <si>
+    <t>La71 GD Laugarásinn meðferðargeðdeild</t>
+  </si>
+  <si>
+    <t>Fv-B1 GD Iðjuþjálfun F</t>
+  </si>
+  <si>
+    <t>Gr-R3 DD Endurhæfingar</t>
+  </si>
+  <si>
+    <t>Gr-R3 GD Læknar endurhæfingar</t>
+  </si>
+  <si>
+    <t>Ei5 GD Augnlækninga</t>
+  </si>
+  <si>
+    <t>Ei5 GD Innkirtla- og efnaskipta</t>
+  </si>
+  <si>
+    <t>Sjúkrahótel Landspítala (Hb-4)</t>
+  </si>
+  <si>
+    <t>Ei5 GD Gigtarlækninga</t>
+  </si>
+  <si>
+    <t>Gr-R1 GD Sjúkraþjálfun G</t>
+  </si>
+  <si>
+    <t>Fv-B7 DD Alm.lyflækninga</t>
+  </si>
+  <si>
+    <t>Öldrunarlækningadeild (Lk-L5)</t>
+  </si>
+  <si>
+    <t>Ei5 GD Erfða- og sameindalæknisfræðideild</t>
+  </si>
+  <si>
+    <t>Ei5 DD Gigtarlækningar</t>
+  </si>
+  <si>
+    <t>Ei5 GD Sálfræðiþjónusta</t>
+  </si>
+  <si>
+    <t>Fv-E4 Æðaþræðing-inngripsröntgen</t>
+  </si>
+  <si>
+    <t>Ei5 GD Brjóstamóttaka</t>
+  </si>
+  <si>
+    <t>Ei5 GD Lýtalækninga</t>
+  </si>
+  <si>
+    <t>Næringarstofa</t>
+  </si>
+  <si>
+    <t>Hs-7h GD Verkjamiðstöð</t>
+  </si>
+  <si>
+    <t>Hb-20E Næringarstofa BH</t>
+  </si>
+  <si>
+    <t>Ei5 GD Krabbameins</t>
+  </si>
+  <si>
+    <t>Ei5 GD Kviðarhols- og brjóstaskurðlækninga</t>
+  </si>
+  <si>
+    <t>Fv-Bb DD Lyflækningaþjónusta</t>
+  </si>
+  <si>
+    <t>Kl-Sk SV Samfélagsgeðteymi</t>
+  </si>
+  <si>
+    <t>Fv-B3 GD Talmeinaþjónusta</t>
+  </si>
+  <si>
+    <t>Hb-10D GD Hjartavísindarannsóknir</t>
+  </si>
+  <si>
+    <t>Db12-0h Iðjuþjálfun geðendurhæfing</t>
+  </si>
+  <si>
+    <t>Kl-H10 DD Iðjuþjálfunar Kleppi</t>
+  </si>
+  <si>
+    <t>Fv-G3 GD SBS - inniliggjandi</t>
+  </si>
+  <si>
+    <t>Hb-20E GD Talmeinaþjónusta BH</t>
+  </si>
+  <si>
+    <t>Hb-21A GD Innskriftir kvenna</t>
   </si>
 </sst>
 </file>
@@ -6397,8 +6499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F531C9-8D09-6E45-B72D-D7F85CF9D0F7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6480,10 +6582,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8991,6 +9093,584 @@
         <v>10</v>
       </c>
       <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B148" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B149" t="s">
+        <v>141</v>
+      </c>
+      <c r="C149" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>354</v>
+      </c>
+      <c r="B150" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" t="s">
+        <v>35</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>355</v>
+      </c>
+      <c r="B151" t="s">
+        <v>31</v>
+      </c>
+      <c r="C151" t="s">
+        <v>35</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B152" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" t="s">
+        <v>35</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B153" t="s">
+        <v>141</v>
+      </c>
+      <c r="C153" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B154" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" t="s">
+        <v>35</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>359</v>
+      </c>
+      <c r="B155" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" t="s">
+        <v>35</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>360</v>
+      </c>
+      <c r="B156" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>361</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" t="s">
+        <v>34</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>362</v>
+      </c>
+      <c r="B158" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" t="s">
+        <v>35</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>363</v>
+      </c>
+      <c r="B159" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" t="s">
+        <v>35</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>364</v>
+      </c>
+      <c r="B160" t="s">
+        <v>141</v>
+      </c>
+      <c r="C160" t="s">
+        <v>35</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>365</v>
+      </c>
+      <c r="B161" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161" t="s">
+        <v>61</v>
+      </c>
+      <c r="D161" t="s">
+        <v>34</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>366</v>
+      </c>
+      <c r="B162" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" t="s">
+        <v>35</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>367</v>
+      </c>
+      <c r="B163" t="s">
+        <v>141</v>
+      </c>
+      <c r="C163" t="s">
+        <v>35</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>368</v>
+      </c>
+      <c r="B164" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164" t="s">
+        <v>35</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>369</v>
+      </c>
+      <c r="B165" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" t="s">
+        <v>35</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>370</v>
+      </c>
+      <c r="B166" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" t="s">
+        <v>35</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>371</v>
+      </c>
+      <c r="B167" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" t="s">
+        <v>35</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>372</v>
+      </c>
+      <c r="B168" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" t="s">
+        <v>35</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>373</v>
+      </c>
+      <c r="B169" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169" t="s">
+        <v>35</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>374</v>
+      </c>
+      <c r="B170" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" t="s">
+        <v>35</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>375</v>
+      </c>
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" t="s">
+        <v>35</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>376</v>
+      </c>
+      <c r="B172" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" t="s">
+        <v>35</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>377</v>
+      </c>
+      <c r="B173" t="s">
+        <v>141</v>
+      </c>
+      <c r="C173" t="s">
+        <v>35</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>378</v>
+      </c>
+      <c r="B174" t="s">
+        <v>31</v>
+      </c>
+      <c r="C174" t="s">
+        <v>35</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>379</v>
+      </c>
+      <c r="B175" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" t="s">
+        <v>35</v>
+      </c>
+      <c r="D175" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>380</v>
+      </c>
+      <c r="B176" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" t="s">
+        <v>35</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>381</v>
+      </c>
+      <c r="B177" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" t="s">
+        <v>35</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>382</v>
+      </c>
+      <c r="B178" t="s">
+        <v>141</v>
+      </c>
+      <c r="C178" t="s">
+        <v>35</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>383</v>
+      </c>
+      <c r="B179" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" t="s">
+        <v>35</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>384</v>
+      </c>
+      <c r="B180" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" t="s">
+        <v>35</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>385</v>
+      </c>
+      <c r="B181" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" t="s">
+        <v>35</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181">
         <v>1</v>
       </c>
     </row>

--- a/lsh_data_processing/lsh_coding_new.xlsx
+++ b/lsh_data_processing/lsh_coding_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Projects/covid/BCS/lsh_data_processing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Signy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE078331-05F8-9F49-A4C7-7351B7138271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D567F6-DABB-2B4E-A035-A3483F220BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23880" windowHeight="17500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23880" windowHeight="17500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lsh_covid_groups" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="point_of_diagnosis_categories" sheetId="11" r:id="rId11"/>
     <sheet name="length_of_stay_categories" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="393">
   <si>
     <t>text_out_category_raw</t>
   </si>
@@ -1194,6 +1194,27 @@
   </si>
   <si>
     <t>Hb-21A GD Innskriftir kvenna</t>
+  </si>
+  <si>
+    <t>length_of_stay_simple_ten_days</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>10+</t>
+  </si>
+  <si>
+    <t>length_of_stay_simple_ten_days_order</t>
+  </si>
+  <si>
+    <t>Sjúkrahús erlendis</t>
+  </si>
+  <si>
+    <t>Flutningur erlendis</t>
+  </si>
+  <si>
+    <t>Lyflækningadeild (Fv-B7)</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1690,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
@@ -1797,14 +1818,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50DD301-9CCE-6744-864C-185ECBAFA9CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
@@ -4625,14 +4646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347AE736-9EEE-7E4F-A4FC-30949C47D801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
@@ -4676,14 +4697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85754964-25F9-724F-B597-4C81CCFECB89}">
-  <dimension ref="A1:I60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="4" width="20.5" style="3" customWidth="1"/>
@@ -4691,7 +4712,7 @@
     <col min="8" max="8" width="20.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -4719,8 +4740,14 @@
       <c r="I1" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4748,8 +4775,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4777,8 +4810,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4806,8 +4845,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4835,8 +4880,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4864,8 +4915,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4893,8 +4950,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4922,8 +4985,14 @@
       <c r="I8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4951,8 +5020,14 @@
       <c r="I9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4980,8 +5055,14 @@
       <c r="I10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5009,8 +5090,14 @@
       <c r="I11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5038,8 +5125,14 @@
       <c r="I12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5067,8 +5160,14 @@
       <c r="I13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5096,8 +5195,14 @@
       <c r="I14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5125,8 +5230,14 @@
       <c r="I15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5154,8 +5265,14 @@
       <c r="I16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5183,8 +5300,14 @@
       <c r="I17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5212,8 +5335,14 @@
       <c r="I18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5241,8 +5370,14 @@
       <c r="I19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5270,8 +5405,14 @@
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5299,8 +5440,14 @@
       <c r="I21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5328,8 +5475,14 @@
       <c r="I22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5357,8 +5510,14 @@
       <c r="I23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5386,8 +5545,14 @@
       <c r="I24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5415,8 +5580,14 @@
       <c r="I25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5444,8 +5615,14 @@
       <c r="I26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5473,8 +5650,14 @@
       <c r="I27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5502,8 +5685,14 @@
       <c r="I28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5531,8 +5720,14 @@
       <c r="I29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5560,8 +5755,14 @@
       <c r="I30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5589,8 +5790,14 @@
       <c r="I31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5618,8 +5825,14 @@
       <c r="I32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5647,8 +5860,14 @@
       <c r="I33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5676,8 +5895,14 @@
       <c r="I34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5705,8 +5930,14 @@
       <c r="I35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5734,8 +5965,14 @@
       <c r="I36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5763,8 +6000,14 @@
       <c r="I37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5792,8 +6035,14 @@
       <c r="I38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5821,8 +6070,14 @@
       <c r="I39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5850,8 +6105,14 @@
       <c r="I40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5879,8 +6140,14 @@
       <c r="I41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5908,8 +6175,14 @@
       <c r="I42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5937,8 +6210,14 @@
       <c r="I43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5966,8 +6245,14 @@
       <c r="I44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5995,8 +6280,14 @@
       <c r="I45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6024,8 +6315,14 @@
       <c r="I46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6053,8 +6350,14 @@
       <c r="I47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6082,8 +6385,14 @@
       <c r="I48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6111,8 +6420,14 @@
       <c r="I49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6140,8 +6455,14 @@
       <c r="I50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6169,8 +6490,14 @@
       <c r="I51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6198,8 +6525,14 @@
       <c r="I52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6227,8 +6560,14 @@
       <c r="I53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6256,8 +6595,14 @@
       <c r="I54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6285,8 +6630,14 @@
       <c r="I55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6314,8 +6665,14 @@
       <c r="I56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6343,8 +6700,14 @@
       <c r="I57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6372,8 +6735,14 @@
       <c r="I58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6401,8 +6770,14 @@
       <c r="I59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6429,11 +6804,18 @@
       </c>
       <c r="I60">
         <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6445,7 +6827,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
@@ -6496,14 +6878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F531C9-8D09-6E45-B72D-D7F85CF9D0F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
@@ -6581,11 +6963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView tabSelected="1" topLeftCell="B161" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9674,6 +10056,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>392</v>
+      </c>
+      <c r="B182" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9685,11 +10084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="141" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9895,6 +10294,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9906,14 +10319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
@@ -10120,14 +10533,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
@@ -10233,14 +10646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8023469F-76F5-624D-BF66-0A486118095E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
@@ -10323,14 +10736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B03F9D6-05FA-864A-B0C5-D8AE08309FFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
